--- a/Evaluation Cleaning/Query Editor for Evaluations MS Project.xlsx
+++ b/Evaluation Cleaning/Query Editor for Evaluations MS Project.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B0427-0D5C-462B-8B63-D646B240DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25FB058-CB8D-40CF-BD12-80DFC8EB6EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Evals (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Task summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Evals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Evals (2)'!$A$1:$H$57</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Evals!$A$1:$H$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,69 +34,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
   <si>
-    <t>Thực hành với một số thao tác trong Query Editor</t>
-  </si>
-  <si>
     <t>Hướng dẫn làm bài</t>
   </si>
   <si>
-    <t>Hướng dẫn yêu cầu 2: Sau khi đã import file, bạn sẽ vào giao diện Query editor bằng cách  chọn vào như khuôn màu đỏ bên phải, sau đó bạn sẽ chọn Remove Rows và chọn Remove Top Rows, sau đó bạn nhập 6 và ấn OK</t>
-  </si>
-  <si>
-    <t>2. Xoá 6 dòng đầu tiên trong file dữ liệu</t>
-  </si>
-  <si>
-    <t>3. Đặt hàng đầu tiên của dữ liệu sau khi làm header</t>
-  </si>
-  <si>
-    <t>Hướng dẫn yêu cầu 3:</t>
-  </si>
-  <si>
     <t>Kết quả:</t>
   </si>
   <si>
-    <t>4.Thay thế dữ liệu null trong cột Course bằng fill down, thay thế dữ liệu null trong cột Eval No. bằng fill up và loại bỏ những biến null và Question khỏi cột Question</t>
-  </si>
-  <si>
-    <t>Hướng dẫn yêu cầu 4: Nếu muốn thực hiện thay thế cho cột nào chúng ta sẽ thực hiện chọn vào cột đó sau đó thực hiện như ảnh dưới</t>
-  </si>
-  <si>
-    <t>Loại bỏ biến null và Question khỏi cột Question:</t>
-  </si>
-  <si>
-    <t>5.Xoá các dữ liệu trùng nhau</t>
-  </si>
-  <si>
-    <t>6. Sắp xếp cột Question theo thứ tự tăng dần sau đó sắp xếp cột Eval No. cũng theo thứ tự tăng dần</t>
-  </si>
-  <si>
     <t>Hướng dẫn yêu cầu 5:  Đầu tiên bạn nhấn tổ hợp phím Ctril + A sau đó chọn vào Remove Rows -&gt; Remove Duplicates</t>
   </si>
   <si>
-    <t xml:space="preserve">Hướng dẫn yêu cầu 6: </t>
-  </si>
-  <si>
-    <t>Sắp xếp cột Question theo thứ tự tăng dần:</t>
-  </si>
-  <si>
     <t>Sắp xếp cột Eval No.  theo thứ tự tăng dần:</t>
   </si>
   <si>
-    <t>7. Thoát Query Editor và thực hiện lưu lại các thay đổi, chúng ta đã thấy những bước trên đã được thực hiện trên file dữ liệu gốc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hướng dẫn yêu cầu 7: </t>
-  </si>
-  <si>
     <t>Kết quả cuối cùng:</t>
   </si>
   <si>
-    <t>1. Import file "Evaluations MS Project.xlsx" vào giao diện Query Editor</t>
-  </si>
-  <si>
-    <t>Hướng dẫn yêu cầu 1: Tạo một sheet mới hoặc file excel mới sau đó thực hiện chọn file nguồn theo hình ảnh bên dưới:</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -149,6 +101,54 @@
   </si>
   <si>
     <t>8 - Overall course rating</t>
+  </si>
+  <si>
+    <t>Query Editor</t>
+  </si>
+  <si>
+    <t>Taksks:</t>
+  </si>
+  <si>
+    <t>1. Import file "Evaluations MS Project.xlsx"</t>
+  </si>
+  <si>
+    <t>2. Delete the top 6 rows</t>
+  </si>
+  <si>
+    <t>3. Set 1st row as header</t>
+  </si>
+  <si>
+    <t>4.Replace null in Course and Eval Num columns, filter out Questions Column which has field is null or Questions</t>
+  </si>
+  <si>
+    <t>7. Save Changes</t>
+  </si>
+  <si>
+    <t>Import files</t>
+  </si>
+  <si>
+    <t>Remove rows</t>
+  </si>
+  <si>
+    <t>Create headers</t>
+  </si>
+  <si>
+    <t>Fill out null values</t>
+  </si>
+  <si>
+    <t>Filter out null &amp; Questions value in Questions column</t>
+  </si>
+  <si>
+    <t>Arrange Questions and Eval No. columns in ascending order</t>
+  </si>
+  <si>
+    <t>Save files</t>
+  </si>
+  <si>
+    <t>5.Drop duplicates</t>
+  </si>
+  <si>
+    <t>6.Arrange Question &amp; Questions No columns in ascending order</t>
   </si>
 </sst>
 </file>
@@ -1101,850 +1101,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475A957-AB25-4591-88D0-9CAE19402BCD}">
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>1034</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>1035</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>1036</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>1037</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>1038</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>1039</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>1040</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>1034</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>1035</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>1036</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>1037</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>1038</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>1039</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>1040</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>1034</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>1035</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>1036</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>1037</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>1038</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>1039</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>1040</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>1034</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>1035</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>1036</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>1037</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>1038</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>1039</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>1040</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1034</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1035</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>1036</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>1037</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34">
-        <v>1038</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>1039</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36">
-        <v>1040</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37">
-        <v>1034</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38">
-        <v>1035</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39">
-        <v>1036</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40">
-        <v>1037</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41">
-        <v>1038</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42">
-        <v>1039</v>
-      </c>
-      <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43">
-        <v>1040</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44">
-        <v>1034</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45">
-        <v>1035</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46">
-        <v>1036</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47">
-        <v>1037</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48">
-        <v>1038</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49">
-        <v>1039</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50">
-        <v>1040</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>1034</v>
-      </c>
-      <c r="C51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52">
-        <v>1035</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53">
-        <v>1036</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54">
-        <v>1037</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55">
-        <v>1038</v>
-      </c>
-      <c r="C55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56">
-        <v>1039</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57">
-        <v>1040</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1974,44 +1142,49 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2043,62 +1216,57 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2109,6 +1277,838 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475A957-AB25-4591-88D0-9CAE19402BCD}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1034</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1035</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1036</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1037</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1038</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1039</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1040</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1034</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1035</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1036</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1037</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1038</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1039</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1040</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1034</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1035</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>1036</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1037</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1038</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1039</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>1040</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>1034</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>1035</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>1036</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1037</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>1038</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>1039</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>1040</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>1034</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>1035</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>1036</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>1037</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>1038</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>1039</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>1040</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>1034</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>1035</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>1036</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>1037</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>1038</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>1039</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>1040</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>1034</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>1035</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>1036</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>1037</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>1038</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>1039</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>1040</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>1034</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>1035</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>1036</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>1037</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>1038</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>1039</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>1040</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
